--- a/HAPVIDA.xlsx
+++ b/HAPVIDA.xlsx
@@ -466,7 +466,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="d"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -506,30 +506,11 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
@@ -594,104 +575,96 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -708,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -723,7 +696,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="1" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="1" width="5.89"/>
@@ -737,9 +710,9 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="1" width="12.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="22.02"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="1" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="1" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="1" width="21.59"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="1" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="30.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="23" style="1" width="11.52"/>
@@ -1122,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1137,7 +1110,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="8" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="8" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="8" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="8" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="8" width="5.89"/>
@@ -1151,9 +1124,9 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="8" width="12.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="8" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="8" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="8" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="8" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="8" width="11.73"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="8" width="21.59"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="8" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="8" width="26.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="8" width="7.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="23" style="8" width="11.52"/>
@@ -1379,7 +1352,7 @@
       <c r="R4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="14" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="13" t="n">
@@ -1813,7 +1786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1828,7 +1801,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="8" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="8" width="15.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="8" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="8" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="31.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="8" width="5.89"/>
@@ -1842,12 +1815,12 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="8" width="12.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="8" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="8" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="8" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="8" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="8" width="51.05"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="8" width="21.59"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="8" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="8" width="25.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="8" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="8" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="8" width="15.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="24" style="8" width="11.52"/>
   </cols>
   <sheetData>
@@ -1949,275 +1922,275 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="n">
+    <row r="3" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="n">
         <v>45210</v>
       </c>
-      <c r="B3" s="18" t="n">
+      <c r="B3" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="17" t="n">
         <v>33777872</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="16" t="n">
         <v>34141</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="n">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17" t="n">
         <v>39708022888</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="18" t="n">
+      <c r="L3" s="17" t="n">
         <v>20367703</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="18" t="n">
+      <c r="S3" s="17" t="n">
         <v>194.6</v>
       </c>
-      <c r="T3" s="17" t="n">
+      <c r="T3" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="V3" s="18" t="n">
+      <c r="V3" s="17" t="n">
         <v>118784</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
+    <row r="4" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="n">
         <v>45210</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="17" t="n">
         <v>33777872</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="16" t="n">
         <v>34141</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="n">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="n">
         <v>39708022888</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="18" t="n">
+      <c r="L4" s="17" t="n">
         <v>20367703</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="T4" s="17" t="n">
+      <c r="T4" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="V4" s="18" t="n">
+      <c r="V4" s="17" t="n">
         <v>118784</v>
       </c>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="n">
         <v>45210</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="17" t="n">
         <v>33777872</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="16" t="n">
         <v>34141</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18" t="n">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="n">
         <v>39708022888</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="18" t="n">
+      <c r="L5" s="17" t="n">
         <v>20367703</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="T5" s="17" t="n">
+      <c r="T5" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="U5" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="18" t="n">
+      <c r="V5" s="17" t="n">
         <v>118784</v>
       </c>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+      <c r="W5" s="18"/>
+    </row>
+    <row r="6" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="n">
         <v>45210</v>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="17" t="n">
         <v>33777872</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="16" t="n">
         <v>34141</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18" t="n">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17" t="n">
         <v>39708022888</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="18" t="n">
+      <c r="L6" s="17" t="n">
         <v>20367703</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="T6" s="17" t="n">
+      <c r="T6" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="U6" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="V6" s="18" t="n">
+      <c r="V6" s="17" t="n">
         <v>118784</v>
       </c>
-      <c r="W6" s="19"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
@@ -2284,7 +2257,7 @@
       <c r="V7" s="14" t="n">
         <v>80073</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="W7" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2353,7 +2326,7 @@
       <c r="V8" s="14" t="n">
         <v>80073</v>
       </c>
-      <c r="W8" s="21"/>
+      <c r="W8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
@@ -2420,7 +2393,7 @@
       <c r="V9" s="14" t="n">
         <v>80073</v>
       </c>
-      <c r="W9" s="21"/>
+      <c r="W9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
@@ -2487,7 +2460,7 @@
       <c r="V10" s="14" t="n">
         <v>80073</v>
       </c>
-      <c r="W10" s="21"/>
+      <c r="W10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
@@ -2556,815 +2529,815 @@
       </c>
       <c r="W11" s="14"/>
     </row>
-    <row r="12" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
+    <row r="12" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="n">
         <v>45213</v>
       </c>
-      <c r="B12" s="18" t="n">
+      <c r="B12" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="17" t="n">
         <v>33825224</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="17" t="n">
+      <c r="F12" s="16" t="n">
         <v>30740</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18" t="n">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="n">
         <v>20548861811</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="L12" s="18" t="n">
+      <c r="L12" s="17" t="n">
         <v>20508685</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="S12" s="18" t="n">
+      <c r="S12" s="17" t="n">
         <v>1.9</v>
       </c>
-      <c r="T12" s="17" t="n">
+      <c r="T12" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="U12" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="V12" s="18" t="n">
+      <c r="V12" s="17" t="n">
         <v>156314</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="W12" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+    <row r="13" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="n">
         <v>45213</v>
       </c>
-      <c r="B13" s="18" t="n">
+      <c r="B13" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D13" s="17" t="n">
         <v>33825224</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="17" t="n">
+      <c r="F13" s="16" t="n">
         <v>30740</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18" t="n">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17" t="n">
         <v>20548861811</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="18" t="n">
+      <c r="L13" s="17" t="n">
         <v>20508685</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="O13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q13" s="18" t="s">
+      <c r="Q13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="T13" s="17" t="n">
+      <c r="T13" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="U13" s="18" t="s">
+      <c r="U13" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="V13" s="18" t="n">
+      <c r="V13" s="17" t="n">
         <v>156314</v>
       </c>
-      <c r="W13" s="19"/>
-    </row>
-    <row r="14" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
+      <c r="W13" s="18"/>
+    </row>
+    <row r="14" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="n">
         <v>45213</v>
       </c>
-      <c r="B14" s="18" t="n">
+      <c r="B14" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="17" t="n">
         <v>33825224</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="17" t="n">
+      <c r="F14" s="16" t="n">
         <v>30740</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18" t="n">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17" t="n">
         <v>20548861811</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="18" t="n">
+      <c r="L14" s="17" t="n">
         <v>20508685</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="O14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="17" t="n">
+      <c r="T14" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="U14" s="18" t="s">
+      <c r="U14" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="V14" s="18" t="n">
+      <c r="V14" s="17" t="n">
         <v>156314</v>
       </c>
-      <c r="W14" s="19"/>
-    </row>
-    <row r="15" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="n">
+      <c r="W14" s="18"/>
+    </row>
+    <row r="15" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="n">
         <v>45213</v>
       </c>
-      <c r="B15" s="18" t="n">
+      <c r="B15" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="17" t="n">
         <v>33825224</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="F15" s="16" t="n">
         <v>30740</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18" t="n">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17" t="n">
         <v>20548861811</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="18" t="n">
+      <c r="L15" s="17" t="n">
         <v>20508685</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="T15" s="17" t="n">
+      <c r="T15" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="U15" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="V15" s="18" t="n">
+      <c r="V15" s="17" t="n">
         <v>156314</v>
       </c>
-      <c r="W15" s="19"/>
-    </row>
-    <row r="16" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="n">
+      <c r="W15" s="18"/>
+    </row>
+    <row r="16" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="B16" s="18" t="n">
+      <c r="B16" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="17" t="n">
         <v>33842231</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="17" t="n">
+      <c r="F16" s="16" t="n">
         <v>33539</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18" t="n">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="n">
         <v>38790094816</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="18" t="n">
+      <c r="L16" s="17" t="n">
         <v>20357102</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="N16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="O16" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="18" t="s">
+      <c r="Q16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="18" t="s">
+      <c r="R16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="S16" s="18" t="n">
+      <c r="S16" s="17" t="n">
         <v>47.07</v>
       </c>
-      <c r="T16" s="17" t="n">
+      <c r="T16" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="U16" s="18" t="s">
+      <c r="U16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="V16" s="18" t="n">
+      <c r="V16" s="17" t="n">
         <v>118784</v>
       </c>
-      <c r="W16" s="19" t="s">
+      <c r="W16" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
+    <row r="17" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="B17" s="18" t="n">
+      <c r="B17" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="18" t="n">
+      <c r="D17" s="17" t="n">
         <v>33842231</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="17" t="n">
+      <c r="F17" s="16" t="n">
         <v>33539</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18" t="n">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17" t="n">
         <v>38790094816</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="18" t="n">
+      <c r="L17" s="17" t="n">
         <v>20357102</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="N17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O17" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="Q17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="18" t="s">
+      <c r="R17" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="T17" s="17" t="n">
+      <c r="T17" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="U17" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="V17" s="18" t="n">
+      <c r="V17" s="17" t="n">
         <v>118784</v>
       </c>
-      <c r="W17" s="19"/>
-    </row>
-    <row r="18" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="n">
+      <c r="W17" s="18"/>
+    </row>
+    <row r="18" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="B18" s="18" t="n">
+      <c r="B18" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="17" t="n">
         <v>33842231</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="17" t="n">
+      <c r="F18" s="16" t="n">
         <v>33539</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18" t="n">
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="n">
         <v>38790094816</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="18" t="n">
+      <c r="L18" s="17" t="n">
         <v>20357102</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="O18" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="P18" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" s="18" t="s">
+      <c r="Q18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="18" t="s">
+      <c r="R18" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="T18" s="17" t="n">
+      <c r="T18" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="U18" s="18" t="s">
+      <c r="U18" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="V18" s="18" t="n">
+      <c r="V18" s="17" t="n">
         <v>118784</v>
       </c>
-      <c r="W18" s="19"/>
-    </row>
-    <row r="19" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="n">
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="B19" s="18" t="n">
+      <c r="B19" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="17" t="n">
         <v>33842231</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="17" t="n">
+      <c r="F19" s="16" t="n">
         <v>33539</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18" t="n">
+      <c r="I19" s="17"/>
+      <c r="J19" s="17" t="n">
         <v>38790094816</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L19" s="18" t="n">
+      <c r="L19" s="17" t="n">
         <v>20357102</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="N19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="18" t="s">
+      <c r="O19" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="P19" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q19" s="18" t="s">
+      <c r="Q19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R19" s="18" t="s">
+      <c r="R19" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="S19" s="18" t="s">
+      <c r="S19" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="T19" s="17" t="n">
+      <c r="T19" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="U19" s="18" t="s">
+      <c r="U19" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="V19" s="18" t="n">
+      <c r="V19" s="17" t="n">
         <v>118784</v>
       </c>
-      <c r="W19" s="19"/>
-    </row>
-    <row r="20" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="n">
+      <c r="W19" s="18"/>
+    </row>
+    <row r="20" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="B20" s="18" t="n">
+      <c r="B20" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D20" s="17" t="n">
         <v>33845792</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="17" t="n">
+      <c r="F20" s="16" t="n">
         <v>27106</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18" t="n">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17" t="n">
         <v>13652535898</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="18" t="n">
+      <c r="L20" s="17" t="n">
         <v>20342755</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="O20" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q20" s="18" t="s">
+      <c r="Q20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="18" t="s">
+      <c r="R20" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="S20" s="18" t="n">
+      <c r="S20" s="17" t="n">
         <v>146.4</v>
       </c>
-      <c r="T20" s="17" t="n">
+      <c r="T20" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="U20" s="18" t="s">
+      <c r="U20" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="V20" s="18" t="n">
+      <c r="V20" s="17" t="n">
         <v>228160</v>
       </c>
-      <c r="W20" s="18" t="s">
+      <c r="W20" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
+    <row r="21" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="B21" s="18" t="n">
+      <c r="B21" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="D21" s="17" t="n">
         <v>33845792</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="17" t="n">
+      <c r="F21" s="16" t="n">
         <v>27106</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18" t="n">
+      <c r="I21" s="17"/>
+      <c r="J21" s="17" t="n">
         <v>13652535898</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="L21" s="18" t="n">
+      <c r="L21" s="17" t="n">
         <v>20342755</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="N21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="O21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="P21" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="18" t="s">
+      <c r="Q21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R21" s="18" t="s">
+      <c r="R21" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="S21" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="T21" s="17" t="n">
+      <c r="T21" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="U21" s="18" t="s">
+      <c r="U21" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="V21" s="18" t="n">
+      <c r="V21" s="17" t="n">
         <v>228160</v>
       </c>
-      <c r="W21" s="18"/>
-    </row>
-    <row r="22" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="n">
+      <c r="W21" s="17"/>
+    </row>
+    <row r="22" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="B22" s="18" t="n">
+      <c r="B22" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="18" t="n">
+      <c r="D22" s="17" t="n">
         <v>33845792</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="17" t="n">
+      <c r="F22" s="16" t="n">
         <v>27106</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18" t="n">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17" t="n">
         <v>13652535898</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="L22" s="18" t="n">
+      <c r="L22" s="17" t="n">
         <v>20342755</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q22" s="18" t="s">
+      <c r="Q22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R22" s="18" t="s">
+      <c r="R22" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="T22" s="17" t="n">
+      <c r="T22" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="U22" s="18" t="s">
+      <c r="U22" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="V22" s="18" t="n">
+      <c r="V22" s="17" t="n">
         <v>228160</v>
       </c>
-      <c r="W22" s="18"/>
-    </row>
-    <row r="23" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="n">
+      <c r="W22" s="17"/>
+    </row>
+    <row r="23" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="B23" s="18" t="n">
+      <c r="B23" s="17" t="n">
         <v>383</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="18" t="n">
+      <c r="D23" s="17" t="n">
         <v>33845792</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="17" t="n">
+      <c r="F23" s="16" t="n">
         <v>27106</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18" t="n">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17" t="n">
         <v>13652535898</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="L23" s="18" t="n">
+      <c r="L23" s="17" t="n">
         <v>20342755</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="18" t="s">
+      <c r="P23" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="18" t="s">
+      <c r="Q23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R23" s="18" t="s">
+      <c r="R23" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="S23" s="18" t="s">
+      <c r="S23" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="T23" s="17" t="n">
+      <c r="T23" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="U23" s="18" t="s">
+      <c r="U23" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="V23" s="18" t="n">
+      <c r="V23" s="17" t="n">
         <v>228160</v>
       </c>
-      <c r="W23" s="18"/>
+      <c r="W23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3386,36 +3359,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="8" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="8" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="8" width="22.78"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="8" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="22.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="25.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="8" width="5.89"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="8" width="5.02"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="8" width="3.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="8" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="8" width="20.61"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="8" width="9.24"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="8" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="8" width="3.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="5.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="5.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="20.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="9.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="8" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="8" width="3.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="8" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="8" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="8" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="8" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="8" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="8" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="8" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="8" width="10.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="8" width="21.37"/>
@@ -3520,138 +3493,138 @@
       <c r="W2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="n">
+      <c r="A3" s="20" t="n">
         <v>45214</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="22" t="n">
+      <c r="F3" s="20" t="n">
         <v>16716</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="T3" s="22" t="n">
+      <c r="T3" s="20" t="n">
         <v>45217.6125</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="V3" s="24" t="n">
+      <c r="V3" s="22" t="n">
         <v>129945</v>
       </c>
-      <c r="W3" s="24"/>
+      <c r="W3" s="22"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="n">
+      <c r="A4" s="20" t="n">
         <v>45215</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="22" t="n">
+      <c r="F4" s="20" t="n">
         <v>17154</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="T4" s="22" t="n">
+      <c r="T4" s="20" t="n">
         <v>45217.6125</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="U4" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="V4" s="24" t="n">
+      <c r="V4" s="22" t="n">
         <v>200718</v>
       </c>
-      <c r="W4" s="24"/>
+      <c r="W4" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
